--- a/sentiment_data.xlsx
+++ b/sentiment_data.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PycharmProjects\actsOfKindnessScrap\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1234,8 +1239,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1303,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1344,7 +1357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1376,9 +1389,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1410,6 +1424,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1585,14 +1600,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1617,13 +1637,13 @@
         <v>203</v>
       </c>
       <c r="D2">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1634,13 +1654,13 @@
         <v>204</v>
       </c>
       <c r="D3">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1657,7 +1677,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1674,7 +1694,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1691,7 +1711,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1708,7 +1728,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1725,7 +1745,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1742,7 +1762,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1753,13 +1773,13 @@
         <v>211</v>
       </c>
       <c r="D10">
-        <v>0.4404</v>
+        <v>0.44040000000000001</v>
       </c>
       <c r="E10" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1770,13 +1790,13 @@
         <v>212</v>
       </c>
       <c r="D11">
-        <v>0.4215</v>
+        <v>0.42149999999999999</v>
       </c>
       <c r="E11" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1787,13 +1807,13 @@
         <v>213</v>
       </c>
       <c r="D12">
-        <v>0.8625</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="E12" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1804,13 +1824,13 @@
         <v>214</v>
       </c>
       <c r="D13">
-        <v>0.0258</v>
+        <v>2.58E-2</v>
       </c>
       <c r="E13" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1827,7 +1847,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1838,13 +1858,13 @@
         <v>216</v>
       </c>
       <c r="D15">
-        <v>-0.4019</v>
+        <v>-0.40189999999999998</v>
       </c>
       <c r="E15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1855,13 +1875,13 @@
         <v>217</v>
       </c>
       <c r="D16">
-        <v>0.2023</v>
+        <v>0.20230000000000001</v>
       </c>
       <c r="E16" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1872,13 +1892,13 @@
         <v>218</v>
       </c>
       <c r="D17">
-        <v>-0.5719</v>
+        <v>-0.57189999999999996</v>
       </c>
       <c r="E17" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1895,7 +1915,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1906,13 +1926,13 @@
         <v>220</v>
       </c>
       <c r="D19">
-        <v>-0.4588</v>
+        <v>-0.45879999999999999</v>
       </c>
       <c r="E19" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1923,13 +1943,13 @@
         <v>221</v>
       </c>
       <c r="D20">
-        <v>-0.2023</v>
+        <v>-0.20230000000000001</v>
       </c>
       <c r="E20" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1940,13 +1960,13 @@
         <v>222</v>
       </c>
       <c r="D21">
-        <v>-0.5719</v>
+        <v>-0.57189999999999996</v>
       </c>
       <c r="E21" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1957,13 +1977,13 @@
         <v>223</v>
       </c>
       <c r="D22">
-        <v>-0.3612</v>
+        <v>-0.36120000000000002</v>
       </c>
       <c r="E22" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1980,7 +2000,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1997,7 +2017,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2014,7 +2034,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2031,7 +2051,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2042,13 +2062,13 @@
         <v>228</v>
       </c>
       <c r="D27">
-        <v>0.4939</v>
+        <v>0.49390000000000001</v>
       </c>
       <c r="E27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2065,7 +2085,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2082,7 +2102,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2099,7 +2119,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2116,7 +2136,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2133,7 +2153,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2144,13 +2164,13 @@
         <v>234</v>
       </c>
       <c r="D33">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E33" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2167,7 +2187,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2178,13 +2198,13 @@
         <v>236</v>
       </c>
       <c r="D35">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E35" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2201,7 +2221,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2218,7 +2238,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2235,7 +2255,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2246,13 +2266,13 @@
         <v>240</v>
       </c>
       <c r="D39">
-        <v>-0.0516</v>
+        <v>-5.16E-2</v>
       </c>
       <c r="E39" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2269,7 +2289,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2286,7 +2306,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2303,7 +2323,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2314,13 +2334,13 @@
         <v>244</v>
       </c>
       <c r="D43">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E43" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2331,13 +2351,13 @@
         <v>245</v>
       </c>
       <c r="D44">
-        <v>-0.765</v>
+        <v>-0.76500000000000001</v>
       </c>
       <c r="E44" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2348,13 +2368,13 @@
         <v>246</v>
       </c>
       <c r="D45">
-        <v>0.0772</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="E45" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2371,7 +2391,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2382,13 +2402,13 @@
         <v>248</v>
       </c>
       <c r="D47">
-        <v>-0.7579</v>
+        <v>-0.75790000000000002</v>
       </c>
       <c r="E47" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2399,13 +2419,13 @@
         <v>249</v>
       </c>
       <c r="D48">
-        <v>-0.4404</v>
+        <v>-0.44040000000000001</v>
       </c>
       <c r="E48" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2422,7 +2442,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2433,13 +2453,13 @@
         <v>251</v>
       </c>
       <c r="D50">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E50" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2456,7 +2476,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2473,7 +2493,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2490,7 +2510,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2507,7 +2527,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2518,13 +2538,13 @@
         <v>256</v>
       </c>
       <c r="D55">
-        <v>0.6124000000000001</v>
+        <v>0.61240000000000006</v>
       </c>
       <c r="E55" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2535,13 +2555,13 @@
         <v>257</v>
       </c>
       <c r="D56">
-        <v>0.0258</v>
+        <v>2.58E-2</v>
       </c>
       <c r="E56" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2552,13 +2572,13 @@
         <v>258</v>
       </c>
       <c r="D57">
-        <v>-0.4019</v>
+        <v>-0.40189999999999998</v>
       </c>
       <c r="E57" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2569,13 +2589,13 @@
         <v>259</v>
       </c>
       <c r="D58">
-        <v>-0.6597</v>
+        <v>-0.65969999999999995</v>
       </c>
       <c r="E58" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2592,7 +2612,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2609,7 +2629,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2620,13 +2640,13 @@
         <v>262</v>
       </c>
       <c r="D61">
-        <v>-0.3612</v>
+        <v>-0.36120000000000002</v>
       </c>
       <c r="E61" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2643,7 +2663,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2660,7 +2680,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2677,7 +2697,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2694,7 +2714,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2705,13 +2725,13 @@
         <v>267</v>
       </c>
       <c r="D66">
-        <v>-0.3818</v>
+        <v>-0.38179999999999997</v>
       </c>
       <c r="E66" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2722,13 +2742,13 @@
         <v>268</v>
       </c>
       <c r="D67">
-        <v>0.0772</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="E67" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2745,7 +2765,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2756,13 +2776,13 @@
         <v>270</v>
       </c>
       <c r="D69">
-        <v>-0.2023</v>
+        <v>-0.20230000000000001</v>
       </c>
       <c r="E69" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2779,7 +2799,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2790,13 +2810,13 @@
         <v>272</v>
       </c>
       <c r="D71">
-        <v>-0.3818</v>
+        <v>-0.38179999999999997</v>
       </c>
       <c r="E71" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2807,13 +2827,13 @@
         <v>273</v>
       </c>
       <c r="D72">
-        <v>-0.3182</v>
+        <v>-0.31819999999999998</v>
       </c>
       <c r="E72" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2824,13 +2844,13 @@
         <v>274</v>
       </c>
       <c r="D73">
-        <v>-0.3612</v>
+        <v>-0.36120000000000002</v>
       </c>
       <c r="E73" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2847,7 +2867,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2864,7 +2884,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2881,7 +2901,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2898,7 +2918,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2915,7 +2935,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2926,13 +2946,13 @@
         <v>280</v>
       </c>
       <c r="D79">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E79" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2949,7 +2969,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2966,7 +2986,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2983,7 +3003,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3000,7 +3020,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3011,13 +3031,13 @@
         <v>285</v>
       </c>
       <c r="D84">
-        <v>0.4939</v>
+        <v>0.49390000000000001</v>
       </c>
       <c r="E84" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3034,7 +3054,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3045,13 +3065,13 @@
         <v>287</v>
       </c>
       <c r="D86">
-        <v>-0.296</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="E86" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3068,7 +3088,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3085,7 +3105,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3102,7 +3122,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3113,13 +3133,13 @@
         <v>291</v>
       </c>
       <c r="D90">
-        <v>-0.5266999999999999</v>
+        <v>-0.52669999999999995</v>
       </c>
       <c r="E90" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3130,13 +3150,13 @@
         <v>292</v>
       </c>
       <c r="D91">
-        <v>-0.5994</v>
+        <v>-0.59940000000000004</v>
       </c>
       <c r="E91" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3147,13 +3167,13 @@
         <v>293</v>
       </c>
       <c r="D92">
-        <v>-0.6369</v>
+        <v>-0.63690000000000002</v>
       </c>
       <c r="E92" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3164,13 +3184,13 @@
         <v>294</v>
       </c>
       <c r="D93">
-        <v>-0.6369</v>
+        <v>-0.63690000000000002</v>
       </c>
       <c r="E93" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3181,13 +3201,13 @@
         <v>295</v>
       </c>
       <c r="D94">
-        <v>-0.5719</v>
+        <v>-0.57189999999999996</v>
       </c>
       <c r="E94" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3198,13 +3218,13 @@
         <v>296</v>
       </c>
       <c r="D95">
-        <v>-0.5994</v>
+        <v>-0.59940000000000004</v>
       </c>
       <c r="E95" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3215,13 +3235,13 @@
         <v>297</v>
       </c>
       <c r="D96">
-        <v>-0.4588</v>
+        <v>-0.45879999999999999</v>
       </c>
       <c r="E96" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3232,13 +3252,13 @@
         <v>298</v>
       </c>
       <c r="D97">
-        <v>-0.3612</v>
+        <v>-0.36120000000000002</v>
       </c>
       <c r="E97" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3255,7 +3275,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3266,13 +3286,13 @@
         <v>300</v>
       </c>
       <c r="D99">
-        <v>-0.5849</v>
+        <v>-0.58489999999999998</v>
       </c>
       <c r="E99" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3283,13 +3303,13 @@
         <v>301</v>
       </c>
       <c r="D100">
-        <v>-0.8126</v>
+        <v>-0.81259999999999999</v>
       </c>
       <c r="E100" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3306,7 +3326,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3317,13 +3337,13 @@
         <v>303</v>
       </c>
       <c r="D102">
-        <v>0.8074</v>
+        <v>0.80740000000000001</v>
       </c>
       <c r="E102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3334,13 +3354,13 @@
         <v>304</v>
       </c>
       <c r="D103">
-        <v>0.7269</v>
+        <v>0.72689999999999999</v>
       </c>
       <c r="E103" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3351,13 +3371,13 @@
         <v>305</v>
       </c>
       <c r="D104">
-        <v>0.9451000000000001</v>
+        <v>0.94510000000000005</v>
       </c>
       <c r="E104" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3368,13 +3388,13 @@
         <v>306</v>
       </c>
       <c r="D105">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E105" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3385,13 +3405,13 @@
         <v>307</v>
       </c>
       <c r="D106">
-        <v>0.7096</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="E106" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3402,13 +3422,13 @@
         <v>308</v>
       </c>
       <c r="D107">
-        <v>0.8591</v>
+        <v>0.85909999999999997</v>
       </c>
       <c r="E107" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3419,13 +3439,13 @@
         <v>309</v>
       </c>
       <c r="D108">
-        <v>-0.0516</v>
+        <v>-5.16E-2</v>
       </c>
       <c r="E108" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3442,7 +3462,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3453,13 +3473,13 @@
         <v>311</v>
       </c>
       <c r="D110">
-        <v>0.7841</v>
+        <v>0.78410000000000002</v>
       </c>
       <c r="E110" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3470,13 +3490,13 @@
         <v>312</v>
       </c>
       <c r="D111">
-        <v>0.0498</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="E111" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3487,13 +3507,13 @@
         <v>313</v>
       </c>
       <c r="D112">
-        <v>0.9231</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="E112" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3504,13 +3524,13 @@
         <v>314</v>
       </c>
       <c r="D113">
-        <v>0.5106000000000001</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="E113" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3521,13 +3541,13 @@
         <v>315</v>
       </c>
       <c r="D114">
-        <v>0.9231</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="E114" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3538,13 +3558,13 @@
         <v>316</v>
       </c>
       <c r="D115">
-        <v>0.6597</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="E115" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3555,13 +3575,13 @@
         <v>317</v>
       </c>
       <c r="D116">
-        <v>0.7351</v>
+        <v>0.73509999999999998</v>
       </c>
       <c r="E116" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3578,7 +3598,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3589,13 +3609,13 @@
         <v>319</v>
       </c>
       <c r="D118">
-        <v>0.7003</v>
+        <v>0.70030000000000003</v>
       </c>
       <c r="E118" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3612,7 +3632,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3623,13 +3643,13 @@
         <v>321</v>
       </c>
       <c r="D120">
-        <v>0.7579</v>
+        <v>0.75790000000000002</v>
       </c>
       <c r="E120" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3640,13 +3660,13 @@
         <v>322</v>
       </c>
       <c r="D121">
-        <v>0.9847</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="E121" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3657,13 +3677,13 @@
         <v>323</v>
       </c>
       <c r="D122">
-        <v>0.9504</v>
+        <v>0.95040000000000002</v>
       </c>
       <c r="E122" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3674,13 +3694,13 @@
         <v>324</v>
       </c>
       <c r="D123">
-        <v>0.9873</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="E123" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3691,13 +3711,13 @@
         <v>325</v>
       </c>
       <c r="D124">
-        <v>0.9371</v>
+        <v>0.93710000000000004</v>
       </c>
       <c r="E124" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3714,7 +3734,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3725,13 +3745,13 @@
         <v>327</v>
       </c>
       <c r="D126">
-        <v>-0.3182</v>
+        <v>-0.31819999999999998</v>
       </c>
       <c r="E126" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3748,7 +3768,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3759,13 +3779,13 @@
         <v>329</v>
       </c>
       <c r="D128">
-        <v>0.8957000000000001</v>
+        <v>0.89570000000000005</v>
       </c>
       <c r="E128" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3776,13 +3796,13 @@
         <v>330</v>
       </c>
       <c r="D129">
-        <v>0.8225</v>
+        <v>0.82250000000000001</v>
       </c>
       <c r="E129" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3793,13 +3813,13 @@
         <v>331</v>
       </c>
       <c r="D130">
-        <v>0.5994</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="E130" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3816,7 +3836,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3827,13 +3847,13 @@
         <v>333</v>
       </c>
       <c r="D132">
-        <v>0.8052</v>
+        <v>0.80520000000000003</v>
       </c>
       <c r="E132" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3850,7 +3870,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3861,13 +3881,13 @@
         <v>335</v>
       </c>
       <c r="D134">
-        <v>0.9432</v>
+        <v>0.94320000000000004</v>
       </c>
       <c r="E134" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3878,13 +3898,13 @@
         <v>336</v>
       </c>
       <c r="D135">
-        <v>0.8126</v>
+        <v>0.81259999999999999</v>
       </c>
       <c r="E135" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3895,13 +3915,13 @@
         <v>337</v>
       </c>
       <c r="D136">
-        <v>0.7346</v>
+        <v>0.73460000000000003</v>
       </c>
       <c r="E136" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3912,13 +3932,13 @@
         <v>338</v>
       </c>
       <c r="D137">
-        <v>-0.5574</v>
+        <v>-0.55740000000000001</v>
       </c>
       <c r="E137" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3929,13 +3949,13 @@
         <v>339</v>
       </c>
       <c r="D138">
-        <v>0.743</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E138" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3946,13 +3966,13 @@
         <v>340</v>
       </c>
       <c r="D139">
-        <v>0.8442</v>
+        <v>0.84419999999999995</v>
       </c>
       <c r="E139" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3963,13 +3983,13 @@
         <v>341</v>
       </c>
       <c r="D140">
-        <v>0.8555</v>
+        <v>0.85550000000000004</v>
       </c>
       <c r="E140" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3980,13 +4000,13 @@
         <v>342</v>
       </c>
       <c r="D141">
-        <v>0.9287</v>
+        <v>0.92869999999999997</v>
       </c>
       <c r="E141" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3997,13 +4017,13 @@
         <v>343</v>
       </c>
       <c r="D142">
-        <v>-0.7506</v>
+        <v>-0.75060000000000004</v>
       </c>
       <c r="E142" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4014,13 +4034,13 @@
         <v>344</v>
       </c>
       <c r="D143">
-        <v>-0.886</v>
+        <v>-0.88600000000000001</v>
       </c>
       <c r="E143" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4031,13 +4051,13 @@
         <v>345</v>
       </c>
       <c r="D144">
-        <v>0.8225</v>
+        <v>0.82250000000000001</v>
       </c>
       <c r="E144" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4048,13 +4068,13 @@
         <v>346</v>
       </c>
       <c r="D145">
-        <v>0.7351</v>
+        <v>0.73509999999999998</v>
       </c>
       <c r="E145" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4065,13 +4085,13 @@
         <v>347</v>
       </c>
       <c r="D146">
-        <v>0.5574</v>
+        <v>0.55740000000000001</v>
       </c>
       <c r="E146" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4082,13 +4102,13 @@
         <v>348</v>
       </c>
       <c r="D147">
-        <v>0.765</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="E147" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4099,13 +4119,13 @@
         <v>349</v>
       </c>
       <c r="D148">
-        <v>0.1531</v>
+        <v>0.15310000000000001</v>
       </c>
       <c r="E148" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4116,13 +4136,13 @@
         <v>350</v>
       </c>
       <c r="D149">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E149" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4139,7 +4159,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4150,13 +4170,13 @@
         <v>352</v>
       </c>
       <c r="D151">
-        <v>0.8074</v>
+        <v>0.80740000000000001</v>
       </c>
       <c r="E151" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4167,13 +4187,13 @@
         <v>353</v>
       </c>
       <c r="D152">
-        <v>0.9360000000000001</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E152" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4184,13 +4204,13 @@
         <v>354</v>
       </c>
       <c r="D153">
-        <v>0.8316</v>
+        <v>0.83160000000000001</v>
       </c>
       <c r="E153" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4201,13 +4221,13 @@
         <v>355</v>
       </c>
       <c r="D154">
-        <v>-0.5859</v>
+        <v>-0.58589999999999998</v>
       </c>
       <c r="E154" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4224,7 +4244,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4235,13 +4255,13 @@
         <v>357</v>
       </c>
       <c r="D156">
-        <v>0.4215</v>
+        <v>0.42149999999999999</v>
       </c>
       <c r="E156" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4258,7 +4278,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4269,13 +4289,13 @@
         <v>359</v>
       </c>
       <c r="D158">
-        <v>-0.0516</v>
+        <v>-5.16E-2</v>
       </c>
       <c r="E158" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4286,13 +4306,13 @@
         <v>360</v>
       </c>
       <c r="D159">
-        <v>0.9805</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="E159" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4303,13 +4323,13 @@
         <v>361</v>
       </c>
       <c r="D160">
-        <v>0.7028</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="E160" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4320,13 +4340,13 @@
         <v>362</v>
       </c>
       <c r="D161">
-        <v>0.4767</v>
+        <v>0.47670000000000001</v>
       </c>
       <c r="E161" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4337,13 +4357,13 @@
         <v>363</v>
       </c>
       <c r="D162">
-        <v>0.7845</v>
+        <v>0.78449999999999998</v>
       </c>
       <c r="E162" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4354,13 +4374,13 @@
         <v>364</v>
       </c>
       <c r="D163">
-        <v>-0.8316</v>
+        <v>-0.83160000000000001</v>
       </c>
       <c r="E163" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4371,13 +4391,13 @@
         <v>365</v>
       </c>
       <c r="D164">
-        <v>0.4215</v>
+        <v>0.42149999999999999</v>
       </c>
       <c r="E164" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4388,13 +4408,13 @@
         <v>366</v>
       </c>
       <c r="D165">
-        <v>0.8794999999999999</v>
+        <v>0.87949999999999995</v>
       </c>
       <c r="E165" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4405,13 +4425,13 @@
         <v>367</v>
       </c>
       <c r="D166">
-        <v>0.7096</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="E166" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4422,13 +4442,13 @@
         <v>368</v>
       </c>
       <c r="D167">
-        <v>-0.1531</v>
+        <v>-0.15310000000000001</v>
       </c>
       <c r="E167" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4439,13 +4459,13 @@
         <v>369</v>
       </c>
       <c r="D168">
-        <v>0.9559</v>
+        <v>0.95589999999999997</v>
       </c>
       <c r="E168" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4456,13 +4476,13 @@
         <v>370</v>
       </c>
       <c r="D169">
-        <v>0.9747</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="E169" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4473,13 +4493,13 @@
         <v>371</v>
       </c>
       <c r="D170">
-        <v>-0.2023</v>
+        <v>-0.20230000000000001</v>
       </c>
       <c r="E170" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4490,13 +4510,13 @@
         <v>372</v>
       </c>
       <c r="D171">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E171" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4507,13 +4527,13 @@
         <v>373</v>
       </c>
       <c r="D172">
-        <v>0.7579</v>
+        <v>0.75790000000000002</v>
       </c>
       <c r="E172" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4524,13 +4544,13 @@
         <v>374</v>
       </c>
       <c r="D173">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="E173" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4541,13 +4561,13 @@
         <v>375</v>
       </c>
       <c r="D174">
-        <v>0.7184</v>
+        <v>0.71840000000000004</v>
       </c>
       <c r="E174" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4558,13 +4578,13 @@
         <v>376</v>
       </c>
       <c r="D175">
-        <v>0.3612</v>
+        <v>0.36120000000000002</v>
       </c>
       <c r="E175" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4575,13 +4595,13 @@
         <v>377</v>
       </c>
       <c r="D176">
-        <v>0.9493</v>
+        <v>0.94930000000000003</v>
       </c>
       <c r="E176" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4598,7 +4618,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4609,13 +4629,13 @@
         <v>379</v>
       </c>
       <c r="D178">
-        <v>0.7096</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="E178" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4626,13 +4646,13 @@
         <v>380</v>
       </c>
       <c r="D179">
-        <v>0.3182</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="E179" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4643,13 +4663,13 @@
         <v>381</v>
       </c>
       <c r="D180">
-        <v>-0.296</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="E180" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4660,13 +4680,13 @@
         <v>382</v>
       </c>
       <c r="D181">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E181" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4677,13 +4697,13 @@
         <v>383</v>
       </c>
       <c r="D182">
-        <v>-0.9287</v>
+        <v>-0.92869999999999997</v>
       </c>
       <c r="E182" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4700,7 +4720,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4711,13 +4731,13 @@
         <v>385</v>
       </c>
       <c r="D184">
-        <v>0.8677</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="E184" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4728,13 +4748,13 @@
         <v>386</v>
       </c>
       <c r="D185">
-        <v>0.4939</v>
+        <v>0.49390000000000001</v>
       </c>
       <c r="E185" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4745,13 +4765,13 @@
         <v>387</v>
       </c>
       <c r="D186">
-        <v>0.7717000000000001</v>
+        <v>0.77170000000000005</v>
       </c>
       <c r="E186" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4762,13 +4782,13 @@
         <v>388</v>
       </c>
       <c r="D187">
-        <v>0.7902</v>
+        <v>0.79020000000000001</v>
       </c>
       <c r="E187" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4779,13 +4799,13 @@
         <v>389</v>
       </c>
       <c r="D188">
-        <v>0.9726</v>
+        <v>0.97260000000000002</v>
       </c>
       <c r="E188" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4796,13 +4816,13 @@
         <v>390</v>
       </c>
       <c r="D189">
-        <v>0.7351</v>
+        <v>0.73509999999999998</v>
       </c>
       <c r="E189" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4819,7 +4839,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4836,7 +4856,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4847,13 +4867,13 @@
         <v>393</v>
       </c>
       <c r="D192">
-        <v>0.8225</v>
+        <v>0.82250000000000001</v>
       </c>
       <c r="E192" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4864,13 +4884,13 @@
         <v>394</v>
       </c>
       <c r="D193">
-        <v>0.3477</v>
+        <v>0.34770000000000001</v>
       </c>
       <c r="E193" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4881,13 +4901,13 @@
         <v>395</v>
       </c>
       <c r="D194">
-        <v>0.8126</v>
+        <v>0.81259999999999999</v>
       </c>
       <c r="E194" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4898,13 +4918,13 @@
         <v>396</v>
       </c>
       <c r="D195">
-        <v>0.8979</v>
+        <v>0.89790000000000003</v>
       </c>
       <c r="E195" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4915,13 +4935,13 @@
         <v>397</v>
       </c>
       <c r="D196">
-        <v>0.8692</v>
+        <v>0.86919999999999997</v>
       </c>
       <c r="E196" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4932,13 +4952,13 @@
         <v>398</v>
       </c>
       <c r="D197">
-        <v>0.4019</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="E197" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4955,7 +4975,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4972,7 +4992,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4983,7 +5003,7 @@
         <v>401</v>
       </c>
       <c r="D200">
-        <v>-0.4215</v>
+        <v>-0.42149999999999999</v>
       </c>
       <c r="E200" t="s">
         <v>403</v>
